--- a/src/material/stockManagement-import.xlsx
+++ b/src/material/stockManagement-import.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
   </authors>
@@ -32,31 +32,11 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Código de ficha de gestão de estoque</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="B1" authorId="0">
       <text>
@@ -65,31 +45,11 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Código do produto</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>-36</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="C1" authorId="0">
       <text>
@@ -98,40 +58,20 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Consumo médio diário</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>-24</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tempo</t>
         </r>
@@ -141,15 +81,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">de</t>
         </r>
@@ -159,15 +101,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ressuprimento</t>
         </r>
@@ -177,15 +121,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">em</t>
         </r>
@@ -195,49 +141,30 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">dias</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>-18</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Estoque</t>
         </r>
@@ -247,15 +174,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">de</t>
         </r>
@@ -265,15 +194,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">segurança</t>
         </r>
@@ -283,49 +214,30 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">(%)</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>33</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Estoque</t>
         </r>
@@ -335,49 +247,30 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">mínimo (calculado)</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>-17</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Quantidade</t>
         </r>
@@ -387,15 +280,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">mínima</t>
         </r>
@@ -405,15 +300,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">de</t>
         </r>
@@ -423,49 +320,30 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ressuprimento (opcional)</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>3</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Lote</t>
         </r>
@@ -475,15 +353,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">de</t>
         </r>
@@ -493,49 +373,30 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ressuprimento</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tipo</t>
         </r>
@@ -545,15 +406,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">de</t>
         </r>
@@ -563,15 +426,17 @@
             <color rgb="FF000000"/>
             <rFont val="Courier New"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF2A00FF"/>
-            <rFont val="Courier New"/>
-            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF2A00FF"/>
+            <rFont val="Courier New"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">aquisição
 </t>
@@ -584,32 +449,12 @@
             <color rgb="FF2A00FF"/>
             <rFont val="Courier New"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">PRODUCTION (ordem de produção)
 PURCHASE (pedido de compra)</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>4</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="J1" authorId="0">
       <text>
@@ -618,32 +463,12 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Fornecedor, CNPJ ou CPF
 (opcional)</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>47</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
@@ -652,10 +477,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
-    <t xml:space="preserve">inventoryManagement.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">productPacking</t>
+    <t xml:space="preserve">stockManagementCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productPackingCode</t>
   </si>
   <si>
     <t xml:space="preserve">averageDailyConsumption</t>
@@ -679,7 +504,7 @@
     <t xml:space="preserve">acquisitionType</t>
   </si>
   <si>
-    <t xml:space="preserve">person.document</t>
+    <t xml:space="preserve">personDocument</t>
   </si>
   <si>
     <t xml:space="preserve">DEFAULT</t>
@@ -710,6 +535,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -728,15 +554,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -745,6 +573,7 @@
       <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -877,14 +706,14 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.29"/>
